--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/0.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/0.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1933548732586071</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.680015815817598</v>
+        <v>-1.684367978687994</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07144405504643779</v>
+        <v>0.07112767720305635</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08902562035104603</v>
+        <v>-0.08888395863012896</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1919836551706092</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.732852489681419</v>
+        <v>-1.740645458350979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06615377677974618</v>
+        <v>0.06481900856488319</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08478363881914067</v>
+        <v>-0.084848173603114</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2054983102959869</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.845036767504323</v>
+        <v>-1.852390584839039</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06604989151774034</v>
+        <v>0.0673421612163282</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0821141023894147</v>
+        <v>-0.08167180301632922</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2237471404267429</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.953277340418807</v>
+        <v>-1.960652407011661</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08871104480710634</v>
+        <v>0.08632168378097189</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09077435559481109</v>
+        <v>-0.09021557880674934</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2330847849121998</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.959131117530924</v>
+        <v>-1.969999719563506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1276538518872067</v>
+        <v>0.1231301209325885</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1205862777522461</v>
+        <v>-0.1192263252314423</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2254730636514144</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.877799188504636</v>
+        <v>-1.884838989024653</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2031674192316072</v>
+        <v>0.1958844327573489</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.13052620850326</v>
+        <v>-0.1294039328697726</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2013022539583133</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.640051470327773</v>
+        <v>-1.64609806478225</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2480253901695555</v>
+        <v>0.2374306674640805</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1345556974537897</v>
+        <v>-0.1334617541644857</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1669856618128784</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.297527595322409</v>
+        <v>-1.299076430137769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.311195499564716</v>
+        <v>0.2986820475503755</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1363044326975548</v>
+        <v>-0.134897259603112</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1249402278899677</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8493657880196317</v>
+        <v>-0.8474084952422943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3217902222701909</v>
+        <v>0.3107437560769026</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1057952200693835</v>
+        <v>-0.1043612886498786</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07417416975229205</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3392867905422489</v>
+        <v>-0.3407915528222124</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2593079592310388</v>
+        <v>0.2472179183603282</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06812264642017289</v>
+        <v>-0.06531774434601506</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.01317232974373025</v>
       </c>
       <c r="E12" t="n">
-        <v>0.244269780546132</v>
+        <v>0.2387056229523341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1015046722250383</v>
+        <v>0.08390713844889663</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001028735635930225</v>
+        <v>0.003202456042446475</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05855952169732436</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8411535715345658</v>
+        <v>0.8283725362696043</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1730294468357424</v>
+        <v>-0.1954670894098837</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09923178861388014</v>
+        <v>0.1014684697852484</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1404352162083559</v>
       </c>
       <c r="E14" t="n">
-        <v>1.463328701764059</v>
+        <v>1.44492369617869</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4798860485524328</v>
+        <v>-0.5032051418345025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2182528184901529</v>
+        <v>0.2209380951110919</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2323000734429754</v>
       </c>
       <c r="E15" t="n">
-        <v>2.112904356857155</v>
+        <v>2.091825092784696</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7998306192627385</v>
+        <v>-0.8264661708333887</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3257095298822296</v>
+        <v>0.3274252107244474</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3310175481945835</v>
       </c>
       <c r="E16" t="n">
-        <v>2.67159772190547</v>
+        <v>2.64278372787094</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.110394823019653</v>
+        <v>-1.136437756391133</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4627908551563065</v>
+        <v>0.4658696365575706</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4366337294649608</v>
       </c>
       <c r="E17" t="n">
-        <v>3.297271896641615</v>
+        <v>3.256953396849497</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.4691633623664</v>
+        <v>-1.492016545988565</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5923452209923236</v>
+        <v>0.5941584910200619</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5471833444911937</v>
       </c>
       <c r="E18" t="n">
-        <v>3.789510174388615</v>
+        <v>3.744321659435193</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.807291788975532</v>
+        <v>-1.831040589477717</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7240528449862799</v>
+        <v>0.7261053659204559</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6601477236510311</v>
       </c>
       <c r="E19" t="n">
-        <v>4.223918989619028</v>
+        <v>4.169657828450429</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.166331846620704</v>
+        <v>-2.189335349068953</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8802081339722785</v>
+        <v>0.8792243720214655</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7719083217407178</v>
       </c>
       <c r="E20" t="n">
-        <v>4.577613678328262</v>
+        <v>4.518556480897061</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.52593382909218</v>
+        <v>-2.546646346709376</v>
       </c>
       <c r="G20" t="n">
-        <v>1.037841426913178</v>
+        <v>1.036764797834209</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8773233783370871</v>
       </c>
       <c r="E21" t="n">
-        <v>4.872739115533899</v>
+        <v>4.810588970529341</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.854550458151292</v>
+        <v>-2.870201717283946</v>
       </c>
       <c r="G21" t="n">
-        <v>1.175251722183607</v>
+        <v>1.170488740322551</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9732629011584256</v>
       </c>
       <c r="E22" t="n">
-        <v>5.097817553803412</v>
+        <v>5.032860932705575</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.120220488530468</v>
+        <v>-3.130686928677557</v>
       </c>
       <c r="G22" t="n">
-        <v>1.266392151364281</v>
+        <v>1.259633313257416</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.055951440032725</v>
       </c>
       <c r="E23" t="n">
-        <v>5.264934311950149</v>
+        <v>5.195828576448563</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.289042696395134</v>
+        <v>-3.293852898829829</v>
       </c>
       <c r="G23" t="n">
-        <v>1.354601756941093</v>
+        <v>1.347586353717456</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.124122044405334</v>
       </c>
       <c r="E24" t="n">
-        <v>5.317681266724056</v>
+        <v>5.249043014901497</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.463650211540141</v>
+        <v>-3.465063680711069</v>
       </c>
       <c r="G24" t="n">
-        <v>1.435185239875203</v>
+        <v>1.424995040083902</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.175326639540218</v>
       </c>
       <c r="E25" t="n">
-        <v>5.364645275246305</v>
+        <v>5.296002301366382</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.590446108866078</v>
+        <v>-3.590601936759087</v>
       </c>
       <c r="G25" t="n">
-        <v>1.479871642728929</v>
+        <v>1.469607464038928</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.208934118405699</v>
       </c>
       <c r="E26" t="n">
-        <v>5.344548199105538</v>
+        <v>5.278637722420193</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.676910914246928</v>
+        <v>-3.671286943926521</v>
       </c>
       <c r="G26" t="n">
-        <v>1.520671792372164</v>
+        <v>1.510473722485257</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.224265061748954</v>
       </c>
       <c r="E27" t="n">
-        <v>5.295933044525045</v>
+        <v>5.235197942710537</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.700840726948063</v>
+        <v>-3.689180393297467</v>
       </c>
       <c r="G27" t="n">
-        <v>1.531749738947879</v>
+        <v>1.521938877764812</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.221857642729136</v>
       </c>
       <c r="E28" t="n">
-        <v>5.129409691587038</v>
+        <v>5.072167338202696</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.650865619846766</v>
+        <v>-3.634749238063768</v>
       </c>
       <c r="G28" t="n">
-        <v>1.514596078563944</v>
+        <v>1.503947839208345</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.203506513546343</v>
       </c>
       <c r="E29" t="n">
-        <v>5.007383859208202</v>
+        <v>4.951696636715705</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.596446269756477</v>
+        <v>-3.579985964795475</v>
       </c>
       <c r="G29" t="n">
-        <v>1.46353489826895</v>
+        <v>1.452914991257534</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.172437166610679</v>
       </c>
       <c r="E30" t="n">
-        <v>4.831841376705143</v>
+        <v>4.781804882858116</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.499770802335749</v>
+        <v>-3.482414093485166</v>
       </c>
       <c r="G30" t="n">
-        <v>1.41810713240909</v>
+        <v>1.406744288372421</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.132530557392353</v>
       </c>
       <c r="E31" t="n">
-        <v>4.678824681847018</v>
+        <v>4.632849157332947</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.386128195796961</v>
+        <v>-3.369663955788155</v>
       </c>
       <c r="G31" t="n">
-        <v>1.340531600015786</v>
+        <v>1.329785771474666</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.086874601388822</v>
       </c>
       <c r="E32" t="n">
-        <v>4.505211946786674</v>
+        <v>4.463387110695471</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.255901723796148</v>
+        <v>-3.239920707657582</v>
       </c>
       <c r="G32" t="n">
-        <v>1.25677017247577</v>
+        <v>1.246916812776428</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.03820381039928</v>
       </c>
       <c r="E33" t="n">
-        <v>4.262491902205622</v>
+        <v>4.22777061440885</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.116064291040674</v>
+        <v>-3.105122497118952</v>
       </c>
       <c r="G33" t="n">
-        <v>1.155293159725514</v>
+        <v>1.147205849480271</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.987802177184928</v>
       </c>
       <c r="E34" t="n">
-        <v>3.96686277888117</v>
+        <v>3.933323579444495</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.028552762944159</v>
+        <v>-3.018980365657969</v>
       </c>
       <c r="G34" t="n">
-        <v>1.083341597652618</v>
+        <v>1.077734941542544</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9373548331839817</v>
       </c>
       <c r="E35" t="n">
-        <v>3.689226268132305</v>
+        <v>3.660500419168568</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.903978593607937</v>
+        <v>-2.896271408980488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9895237619466113</v>
+        <v>0.9852849284529485</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8872788436551845</v>
       </c>
       <c r="E36" t="n">
-        <v>3.421059056417186</v>
+        <v>3.394547852357118</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.826111867677192</v>
+        <v>-2.819294003853278</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9028692872616445</v>
+        <v>0.898710728743168</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8392395676818279</v>
       </c>
       <c r="E37" t="n">
-        <v>3.125200126301023</v>
+        <v>3.100936621546174</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.701897361710188</v>
+        <v>-2.694993713844163</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8295058300369408</v>
+        <v>0.8263703839473098</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7933399293512979</v>
       </c>
       <c r="E38" t="n">
-        <v>2.83550033300651</v>
+        <v>2.815385942655409</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.608196003419158</v>
+        <v>-2.605991589639776</v>
       </c>
       <c r="G38" t="n">
-        <v>0.768177323013702</v>
+        <v>0.7662790559534134</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7501183133315853</v>
       </c>
       <c r="E39" t="n">
-        <v>2.546035068561071</v>
+        <v>2.527512011541605</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.493663289067274</v>
+        <v>-2.493209184550779</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7038928080806607</v>
+        <v>0.70266979522341</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7089794137095001</v>
       </c>
       <c r="E40" t="n">
-        <v>2.317345830427294</v>
+        <v>2.299850607894038</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.399970587881411</v>
+        <v>-2.402326894505998</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6536076192124676</v>
+        <v>0.6517062041139363</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.668893535093206</v>
       </c>
       <c r="E41" t="n">
-        <v>2.133926956241247</v>
+        <v>2.116885051214924</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.298013499299159</v>
+        <v>-2.299860610738005</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5772661178102629</v>
+        <v>0.5763374465286956</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6287580134828337</v>
       </c>
       <c r="E42" t="n">
-        <v>1.916399087696613</v>
+        <v>1.900126878020606</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.215291711388762</v>
+        <v>-2.215384578516919</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5144155342967265</v>
+        <v>0.5123850496302486</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5866179763872817</v>
       </c>
       <c r="E43" t="n">
-        <v>1.689362569640202</v>
+        <v>1.67406467780028</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.125827612572273</v>
+        <v>-2.126908176699046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4602047417400095</v>
+        <v>0.4589628406533032</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5419277066978058</v>
       </c>
       <c r="E44" t="n">
-        <v>1.463615173244136</v>
+        <v>1.448791061159726</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.056720303051567</v>
+        <v>-2.055823899161986</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4084336788213085</v>
+        <v>0.4062851427207331</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.493092935337738</v>
       </c>
       <c r="E45" t="n">
-        <v>1.259689977945783</v>
+        <v>1.246517011919617</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.973893055860043</v>
+        <v>-1.972112053224291</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3482715199669537</v>
+        <v>0.3472247972512887</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4411627099925459</v>
       </c>
       <c r="E46" t="n">
-        <v>1.077936415990071</v>
+        <v>1.065536293352464</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.899338853170075</v>
+        <v>-1.896872365206997</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2899981840581596</v>
+        <v>0.2889939598587697</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3867190416030403</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9210177277302414</v>
+        <v>0.9111265915719879</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.833121442756076</v>
+        <v>-1.83174653705362</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2579464326911137</v>
+        <v>0.2555224432443106</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.331952918768547</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7578249992529075</v>
+        <v>0.7483069056264021</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.779236472157469</v>
+        <v>-1.777218579643961</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2006615807904965</v>
+        <v>0.1984138814852791</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2785104878786717</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6461436205392597</v>
+        <v>0.6363831279680742</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.739727805203261</v>
+        <v>-1.737810649913516</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1544798597715343</v>
+        <v>0.1517505106151989</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2276506681573455</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5588894445690774</v>
+        <v>0.5489211814738801</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.67298782044099</v>
+        <v>-1.672075676360196</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1181499244327931</v>
+        <v>0.1148334661442126</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1808517755093205</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4345923025982047</v>
+        <v>0.423585186882949</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.611515290668152</v>
+        <v>-1.611612092844112</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07768661488151632</v>
+        <v>0.07425682721620212</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1383554834894918</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3092578820263948</v>
+        <v>0.3008195655171018</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.573284727240441</v>
+        <v>-1.574157520843202</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04203035972669184</v>
+        <v>0.03953553941943025</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1013749336103169</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2160255814335125</v>
+        <v>0.2072976454059001</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.552310922449109</v>
+        <v>-1.552813034548804</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.008199738472255708</v>
+        <v>-0.009241739130556762</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.06910251836109478</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1226138426608019</v>
+        <v>0.1136466557267518</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.521968555847796</v>
+        <v>-1.524252457592803</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02721231543844671</v>
+        <v>-0.02793636423424503</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04139522761123451</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03760106991935171</v>
+        <v>0.02909979264520669</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.52249349122475</v>
+        <v>-1.524803364285258</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0544034957589161</v>
+        <v>-0.05560447234846852</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01725269414332533</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.04946894581363844</v>
+        <v>-0.05535735134642431</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.512439444087441</v>
+        <v>-1.515141247909154</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08998419799591814</v>
+        <v>-0.08912950561305187</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.004135724253183094</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1264888494571237</v>
+        <v>-0.133996920665728</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.516339863470024</v>
+        <v>-1.518738668610887</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1114018761794566</v>
+        <v>-0.1121101847840419</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.02354651118374583</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.229865703286789</v>
+        <v>-0.2358627161389446</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.538655519562265</v>
+        <v>-1.540503418010672</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1569587116072624</v>
+        <v>-0.1556869041572514</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04217395355959417</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.307124857836712</v>
+        <v>-0.3123694895488858</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.550540150937646</v>
+        <v>-1.552183426900284</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1868461866825199</v>
+        <v>-0.1860418629115352</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06005167445504724</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4034737162897696</v>
+        <v>-0.4071852533777967</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.556231804080269</v>
+        <v>-1.559261003879212</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2167462539107477</v>
+        <v>-0.2151549205791127</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.07745187472641489</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4951981065644459</v>
+        <v>-0.4981273561491865</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.598462737104767</v>
+        <v>-1.600153233641044</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2479165545698652</v>
+        <v>-0.2480676604055101</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.09374411021080967</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5734126907209984</v>
+        <v>-0.5743917306144474</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.623664357255912</v>
+        <v>-1.626111956989534</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2661657322622255</v>
+        <v>-0.2656998226023204</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.109194938636645</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.656187208271959</v>
+        <v>-0.6553608482332761</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.67469405716848</v>
+        <v>-1.67677491044684</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3022265103312242</v>
+        <v>-0.3016960658873459</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1237660570928258</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7467515464542366</v>
+        <v>-0.7450972523577496</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.713203221980662</v>
+        <v>-1.712479173184864</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3420287318515547</v>
+        <v>-0.3401021324470827</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.137614659086474</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8367413676572395</v>
+        <v>-0.8346581533501981</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.776339489964715</v>
+        <v>-1.774074476449163</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3683746639038856</v>
+        <v>-0.3661427047898812</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1504439075816887</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9118606432117542</v>
+        <v>-0.9106321212875791</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.819138643892002</v>
+        <v>-1.816717015473881</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3958271313984909</v>
+        <v>-0.3929671386550875</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1621000669666973</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9903097562173805</v>
+        <v>-0.989226044052365</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.842209829162466</v>
+        <v>-1.838816243936942</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4274932480808181</v>
+        <v>-0.4238777261591904</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1726027545406356</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.031485309421046</v>
+        <v>-1.029827867286316</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.866027886505988</v>
+        <v>-1.863162384695661</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4460588036165598</v>
+        <v>-0.442463743943509</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1813357440650505</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.049200894631285</v>
+        <v>-1.049465329843664</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.93679814722835</v>
+        <v>-1.932837128109596</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4736623769468099</v>
+        <v>-0.4695022444092122</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1881538381548465</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.032232181494103</v>
+        <v>-1.032025984989213</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.953783387566305</v>
+        <v>-1.949027488791295</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4934304830912252</v>
+        <v>-0.4886360208477433</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1924985481242394</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.02703713138425</v>
+        <v>-1.028123204577948</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.968993134335434</v>
+        <v>-1.962763953662886</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5011966934357228</v>
+        <v>-0.4968618447756608</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1945641083283327</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.038374791114979</v>
+        <v>-1.039878766385382</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.009876706992098</v>
+        <v>-2.003571186392167</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.498088005671154</v>
+        <v>-0.4937374168198789</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1947662336701201</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9676493899375751</v>
+        <v>-0.9727185185177241</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.003335083523972</v>
+        <v>-1.999249716894636</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5120873317360023</v>
+        <v>-0.5081318216841737</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1934826895676824</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8694022644242289</v>
+        <v>-0.8760682354029372</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.027841774233063</v>
+        <v>-2.024308888315304</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5110594972497929</v>
+        <v>-0.5067608510295207</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1905008128106144</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7761258912959501</v>
+        <v>-0.7842399598662552</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.029079740271966</v>
+        <v>-2.027302672684018</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.508500142158558</v>
+        <v>-0.5046280551201583</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.185614802913896</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6388966082244709</v>
+        <v>-0.6492174516028395</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.013629168577279</v>
+        <v>-2.013675602141357</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4936114952901748</v>
+        <v>-0.489456084809941</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1786115650748376</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5136833871250012</v>
+        <v>-0.5263180386116818</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.992900123759309</v>
+        <v>-1.993175577105537</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4579804244412912</v>
+        <v>-0.4562647435990734</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1698707244265564</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3599426434710778</v>
+        <v>-0.3739026190578936</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.004426665784594</v>
+        <v>-2.005386030439027</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4308994254593128</v>
+        <v>-0.4300164007322631</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1592344151095157</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1697381728531027</v>
+        <v>-0.184444233503415</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.974868947715249</v>
+        <v>-1.977765142898442</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3955264937463225</v>
+        <v>-0.3952384482471245</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1465908750786544</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.001716353711618174</v>
+        <v>-0.01725821851534116</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.913268922393586</v>
+        <v>-1.918239674778654</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3697110061378699</v>
+        <v>-0.3700997888608312</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1316041965196452</v>
       </c>
       <c r="E81" t="n">
-        <v>0.211275191725427</v>
+        <v>0.1949274291315981</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.885736179923794</v>
+        <v>-1.891846522152684</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3247900744350695</v>
+        <v>-0.3261500269558734</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1138617852204218</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4138325644073699</v>
+        <v>0.3961626257516484</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.856439749028585</v>
+        <v>-1.862735038504228</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2841882512011183</v>
+        <v>-0.2862659564412352</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09321808666931769</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6137455849655277</v>
+        <v>0.5950887363207507</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.805310098901814</v>
+        <v>-1.811828899092681</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2458435713871122</v>
+        <v>-0.2475372159616318</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.06969124206300023</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8140048897303716</v>
+        <v>0.7948695392727191</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.732425930499547</v>
+        <v>-1.73741557111407</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1972158246536488</v>
+        <v>-0.1993675087924668</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04363299569498476</v>
       </c>
       <c r="E85" t="n">
-        <v>1.029853279872577</v>
+        <v>1.007462857872075</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.651378111924653</v>
+        <v>-1.654779567245784</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1627715642222259</v>
+        <v>-0.1657574784953333</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.0154081515600103</v>
       </c>
       <c r="E86" t="n">
-        <v>1.240088717828225</v>
+        <v>1.218864643996607</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.565616893091025</v>
+        <v>-1.567805566679193</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1184944063400375</v>
+        <v>-0.1217652180741003</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01418231663667393</v>
       </c>
       <c r="E87" t="n">
-        <v>1.416027853149852</v>
+        <v>1.394265464778749</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.453205956514654</v>
+        <v>-1.453932366339134</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.08028509217046331</v>
+        <v>-0.08435707963726818</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04353858483327313</v>
       </c>
       <c r="E88" t="n">
-        <v>1.562008682535763</v>
+        <v>1.540098336367258</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.325232692885983</v>
+        <v>-1.325498702117483</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0468529260340367</v>
+        <v>-0.05151989272869324</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07057174358101902</v>
       </c>
       <c r="E89" t="n">
-        <v>1.674516421288094</v>
+        <v>1.653062540664765</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.164029524577973</v>
+        <v>-1.164520618543819</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0239745581059312</v>
+        <v>-0.02950723531730312</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09207571323528023</v>
       </c>
       <c r="E90" t="n">
-        <v>1.760874980378256</v>
+        <v>1.739406933582836</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.009033500674813</v>
+        <v>-1.00837713470123</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004548242391158563</v>
+        <v>-0.0001423345903174867</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1047278048161772</v>
       </c>
       <c r="E91" t="n">
-        <v>1.827737738631988</v>
+        <v>1.807879913397658</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.829373384150431</v>
+        <v>-0.828975157312742</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.001766722323499796</v>
+        <v>-0.005147715396053674</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1059891527350734</v>
       </c>
       <c r="E92" t="n">
-        <v>1.880783757038942</v>
+        <v>1.86111638811829</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6153382640359635</v>
+        <v>-0.6146409735652273</v>
       </c>
       <c r="G92" t="n">
-        <v>0.001867687827583492</v>
+        <v>-0.003106212595726682</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09557352564612735</v>
       </c>
       <c r="E93" t="n">
-        <v>1.879494635378597</v>
+        <v>1.858758507474582</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4557264290595885</v>
+        <v>-0.4528491221058509</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01177276187760827</v>
+        <v>-0.01754941205278179</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07560554648150186</v>
       </c>
       <c r="E94" t="n">
-        <v>1.864905052143261</v>
+        <v>1.845258145471186</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2702613300158498</v>
+        <v>-0.2675902195670026</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0411360885854726</v>
+        <v>-0.04651765996119965</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05150091573808211</v>
       </c>
       <c r="E95" t="n">
-        <v>1.799879174204087</v>
+        <v>1.783169387212359</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1136417053890675</v>
+        <v>-0.1127508105664113</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04439273414744372</v>
+        <v>-0.04861740146901477</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0287935229853495</v>
       </c>
       <c r="E96" t="n">
-        <v>1.72635516702901</v>
+        <v>1.711480686332719</v>
       </c>
       <c r="F96" t="n">
-        <v>0.009301780137486641</v>
+        <v>0.01178873034914173</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06889863784697413</v>
+        <v>-0.07243860685077938</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01221302469882519</v>
       </c>
       <c r="E97" t="n">
-        <v>1.587443257516861</v>
+        <v>1.577336480738989</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08280217702574355</v>
+        <v>0.0858856804843716</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09808567441325279</v>
+        <v>-0.1014210209312889</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.002548484598281527</v>
       </c>
       <c r="E98" t="n">
-        <v>1.454659004443935</v>
+        <v>1.447442126772771</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1288564024958804</v>
+        <v>0.1321618426506118</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1092501920406386</v>
+        <v>-0.1124155444935742</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.001525664435444009</v>
       </c>
       <c r="E99" t="n">
-        <v>1.319436595752114</v>
+        <v>1.313120057018335</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1480011970682606</v>
+        <v>0.151583664588341</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1321521702555636</v>
+        <v>-0.1349617943870853</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.00440168753305719</v>
       </c>
       <c r="E100" t="n">
-        <v>1.172259511834015</v>
+        <v>1.166813405674314</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1660520483513369</v>
+        <v>0.1692473071675773</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1307937917538811</v>
+        <v>-0.1332728718699297</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.007370569827012071</v>
       </c>
       <c r="E101" t="n">
-        <v>1.039986814975511</v>
+        <v>1.034266829488705</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1600928119580925</v>
+        <v>0.1648510717617845</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1549345230172697</v>
+        <v>-0.156543170559239</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01736139297483332</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9099476512501337</v>
+        <v>0.9062896308122309</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1525390941949705</v>
+        <v>0.1565811752984707</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1474217297513016</v>
+        <v>-0.1507177257913052</v>
       </c>
     </row>
   </sheetData>
